--- a/20180126_SmartCut/NonlinearCut/multi-hinge/tests/20190323 203316 SmartCut #7.xlsx
+++ b/20180126_SmartCut/NonlinearCut/multi-hinge/tests/20190323 203316 SmartCut #7.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\VbaProject\20180126_SmartCut\NonlinearCut\multi-hinge\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F27D32-4DB4-418F-8CAC-49B6D00EBAF5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="梁名編號" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3451" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3451" uniqueCount="111">
   <si>
     <t>樓層</t>
   </si>
@@ -580,18 +581,100 @@
     </r>
   </si>
   <si>
-    <t>主筋長度</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>左</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>箍筋長度</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>右</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>主筋長度</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>箍筋長度</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>主筋量</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -679,24 +762,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -790,6 +870,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -825,6 +922,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1000,7 +1114,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1062,510 +1176,510 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="AA4" sqref="AA4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="4" t="s">
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="4" t="s">
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="V1" s="5"/>
-      <c r="W1" s="4" t="s">
-        <v>18</v>
+      <c r="V1" s="4"/>
+      <c r="W1" s="3" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="O2" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="P2" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="Q2" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="R2" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="S2" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4" t="s">
+      <c r="T2" s="3"/>
+      <c r="U2" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="O2" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="P2" s="4" t="s">
+      <c r="V2" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="Q2" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="W2" s="4"/>
+      <c r="W2" s="3"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>0</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="A4" s="3">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="2">
         <v>60</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="2">
         <v>80</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="2">
         <v>180.0000011920929</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="2">
         <v>350</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="2">
         <v>180.00001907348599</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="N4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="O4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="P4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="Q4" s="2">
         <v>177.50000506639469</v>
       </c>
-      <c r="R4" s="6">
+      <c r="R4" s="2">
         <v>355.00001013278938</v>
       </c>
-      <c r="S4" s="6">
+      <c r="S4" s="2">
         <v>177.50000506639469</v>
       </c>
-      <c r="T4" s="6">
+      <c r="T4" s="2">
         <v>800</v>
       </c>
-      <c r="U4" s="6">
+      <c r="U4" s="2">
         <v>45</v>
       </c>
-      <c r="V4" s="6">
+      <c r="V4" s="2">
         <v>45</v>
       </c>
-      <c r="W4" s="6">
+      <c r="W4" s="2">
         <v>22142.12094137667</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>1</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="6">
-        <v>0</v>
-      </c>
-      <c r="I5" s="6" t="s">
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>2</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G6" s="6">
-        <v>0</v>
-      </c>
-      <c r="H6" s="6" t="s">
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>3</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="2">
         <v>109.9999964237209</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="2">
         <v>489.99998569488599</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="2">
         <v>110.0000381469719</v>
       </c>
-      <c r="W7" s="6">
+      <c r="W7" s="2">
         <v>28722.820272260909</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>4</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="3">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="2">
         <v>60</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="2">
         <v>80</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="2">
         <v>180.0000011920929</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="2">
         <v>350</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="2">
         <v>180.00001907348599</v>
       </c>
-      <c r="N8" s="6" t="s">
+      <c r="N8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="O8" s="6" t="s">
+      <c r="O8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="P8" s="6" t="s">
+      <c r="P8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Q8" s="6">
+      <c r="Q8" s="2">
         <v>177.50000506639469</v>
       </c>
-      <c r="R8" s="6">
+      <c r="R8" s="2">
         <v>355.00001013278938</v>
       </c>
-      <c r="S8" s="6">
+      <c r="S8" s="2">
         <v>177.50000506639469</v>
       </c>
-      <c r="T8" s="6">
+      <c r="T8" s="2">
         <v>800</v>
       </c>
-      <c r="U8" s="6">
+      <c r="U8" s="2">
         <v>45</v>
       </c>
-      <c r="V8" s="6">
+      <c r="V8" s="2">
         <v>45</v>
       </c>
-      <c r="W8" s="6">
+      <c r="W8" s="2">
         <v>24890.531019824721</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>5</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="6">
-        <v>0</v>
-      </c>
-      <c r="I9" s="6" t="s">
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>6</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G10" s="6">
-        <v>0</v>
-      </c>
-      <c r="H10" s="6" t="s">
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>7</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="2">
         <v>109.9999964237209</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="2">
         <v>489.99998569488599</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11" s="2">
         <v>110.0000381469719</v>
       </c>
-      <c r="W11" s="6">
+      <c r="W11" s="2">
         <v>28722.820272260909</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>8</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="2">
         <v>60</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="2">
         <v>80</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="2">
         <v>189.9999916553499</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="2">
         <v>330.00001907348599</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="2">
         <v>190.00000953674299</v>
       </c>
-      <c r="N12" s="6" t="s">
+      <c r="N12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="O12" s="6" t="s">
+      <c r="O12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="P12" s="6" t="s">
+      <c r="P12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Q12" s="6">
+      <c r="Q12" s="2">
         <v>177.50000506639469</v>
       </c>
-      <c r="R12" s="6">
+      <c r="R12" s="2">
         <v>355.00001013278938</v>
       </c>
-      <c r="S12" s="6">
+      <c r="S12" s="2">
         <v>177.50000506639469</v>
       </c>
-      <c r="T12" s="6">
+      <c r="T12" s="2">
         <v>800</v>
       </c>
-      <c r="U12" s="6">
+      <c r="U12" s="2">
         <v>45</v>
       </c>
-      <c r="V12" s="6">
+      <c r="V12" s="2">
         <v>45</v>
       </c>
-      <c r="W12" s="6">
+      <c r="W12" s="2">
         <v>24232.46035532355</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>9</v>
-      </c>
-      <c r="F13" s="6" t="s">
+      <c r="A13" s="3">
+        <v>9</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="6">
-        <v>0</v>
-      </c>
-      <c r="I13" s="6" t="s">
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>10</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G14" s="6">
-        <v>0</v>
-      </c>
-      <c r="H14" s="6" t="s">
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>11</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="I15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="2">
         <v>109.9999964237209</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="2">
         <v>489.99998569488599</v>
       </c>
-      <c r="L15" s="6">
+      <c r="L15" s="2">
         <v>110.0000381469719</v>
       </c>
-      <c r="W15" s="6">
+      <c r="W15" s="2">
         <v>28722.820272260909</v>
       </c>
     </row>
@@ -1583,7 +1697,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:W15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1604,37 +1718,37 @@
       <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2" t="s">
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
       <c r="M1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2" t="s">
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
       <c r="T1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="2"/>
+      <c r="V1" s="5"/>
       <c r="W1" s="1" t="s">
         <v>18</v>
       </c>
@@ -2099,7 +2213,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AN217"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
